--- a/CubeMX設定.xlsx
+++ b/CubeMX設定.xlsx
@@ -4,20 +4,2246 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ADC" sheetId="1" r:id="rId1"/>
+    <sheet name="Flash" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+  <si>
+    <t>mapファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.listファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define BACKUP_FLASH_SECTOR_NUM     FLASH_SECTOR_1</t>
+  </si>
+  <si>
+    <t>#define BACKUP_FLASH_SECTOR_SIZE    1024*16</t>
+  </si>
+  <si>
+    <t>// Flashから読みだしたデータを退避するRAM上の領域</t>
+  </si>
+  <si>
+    <t>// 4byteごとにアクセスをするので、アドレスが4の倍数になるように配置する</t>
+  </si>
+  <si>
+    <r>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint8_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>work_ram[BACKUP_FLASH_SECTOR_SIZE]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>__attribute__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>((aligned(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)));</t>
+    </r>
+  </si>
+  <si>
+    <t>// Flashのsector1の先頭に配置される変数(ラベル)</t>
+  </si>
+  <si>
+    <t>// 配置と定義はリンカスクリプトで行う</t>
+  </si>
+  <si>
+    <r>
+      <t>extern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_backup_flash_start;</t>
+    </r>
+  </si>
+  <si>
+    <t>// Flashのsectoe1を消去</t>
+  </si>
+  <si>
+    <r>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Flash_clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_FLASH_Unlock();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>FLASH_EraseInitTypeDef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct.TypeErase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>FLASH_TYPEERASE_SECTORS;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct.Sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BACKUP_FLASH_SECTOR_NUM;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct.VoltageRange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>FLASH_VOLTAGE_RANGE_3;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct.NbSectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>// Eraseに失敗したsector番号がerror_sectorに入る</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>// 正常にEraseができたときは0xFFFFFFFFが入る</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>error_sector;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_StatusTypeDef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_FLASHEx_Erase(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EraseInitStruct,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>error_sector);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_FLASH_Lock();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>error_sector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0xFFFFFFFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// Flashのsector1の内容を全てwork_ramに読み出す</t>
+  </si>
+  <si>
+    <t>// work_ramの先頭アドレスを返す</t>
+  </si>
+  <si>
+    <r>
+      <t>uint8_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Flash_load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>memcpy(work_ram,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_backup_flash_start,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BACKUP_FLASH_SECTOR_SIZE);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>work_ram;</t>
+    </r>
+  </si>
+  <si>
+    <t>// Flashのsector1を消去後、work_ramにあるデータを書き込む</t>
+  </si>
+  <si>
+    <r>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Flash_store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>// Flashをclear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Flash_clear())</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>false;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p_work_ram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)work_ram;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF75715E"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>// work_ramにあるデータを4バイトごとまとめて書き込む</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_StatusTypeDef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>result;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>write_cnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BACKUP_FLASH_SECTOR_SIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>write_cnt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_FLASH_Program(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>FLASH_TYPEPROGRAM_WORD,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_backup_flash_start)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sizeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>uint32_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p_work_ram[i]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_OK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>HAL_OK;</t>
+    </r>
+  </si>
+  <si>
+    <t>リンカスクリプト(*,ld)を編集</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RAMとかの設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FLASH_SECTOR0 (rx) : ORIGIN = 0x08000000, LENGTH = 16K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FLASH_SECTOR1 (r) : ORIGIN = 0x08004000, LENGTH = 16K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FLASH (rx) : ORIGIN = 0x08008000, LENGTH = 992K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /* 以下sectionの定義の抜粋 */</t>
+  </si>
+  <si>
+    <t>.isr_vector :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* 略 */</t>
+  </si>
+  <si>
+    <t>} &gt;FLASH_SECTOR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>.backup_flash :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        _backup_flash_start = .;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        . = . + LENGTH(FLASH_SECTOR1);</t>
+  </si>
+  <si>
+    <t>} &gt;FLASH_SECTOR1</t>
+  </si>
+  <si>
+    <t>.text :</t>
+  </si>
+  <si>
+    <t>} &gt;FLASH</t>
+  </si>
+  <si>
+    <t>/* 略 */</t>
+  </si>
+  <si>
+    <t>ソースコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンカスクリプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +2258,80 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF75715E"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF66D9EF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAE81FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF92672"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +2346,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -75,13 +2392,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>467460</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -113,13 +2430,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -151,13 +2468,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>505565</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -189,13 +2506,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>505565</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -227,13 +2544,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>515092</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -261,6 +2578,212 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>620169</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>124536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="5486400"/>
+          <a:ext cx="7478169" cy="5096586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>658274</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>115225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="342900"/>
+          <a:ext cx="7516274" cy="6630325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448312</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="685800"/>
+          <a:ext cx="4563112" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658082</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3086100"/>
+          <a:ext cx="6144482" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="1114425"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -553,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,14 +3091,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AD72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="14" max="22" width="9" style="1"/>
+    <col min="24" max="30" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="X2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N6" s="3"/>
+      <c r="X6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N10" s="3"/>
+      <c r="X10" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="N14" s="3"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N15" s="3"/>
+      <c r="X15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N20" s="3"/>
+      <c r="X20" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N26" s="3"/>
+      <c r="X26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N31" s="3"/>
+      <c r="X31" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="14:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N32" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N34" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N35" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N41" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N43" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N46" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N48" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N49" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N51" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N55" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N56" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N57" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N59" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N60" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N61" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N62" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N63" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N64" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N65" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N66" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N67" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N71" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N72" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
